--- a/rdv.xlsx
+++ b/rdv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uporabnik\Documents\magisterij\food calculator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uporabnik\Documents\magisterij\shiny-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="99">
   <si>
     <t>Unit Name</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Max Daily Intake</t>
   </si>
   <si>
-    <t>Energy (Atwater General Factors)</t>
-  </si>
-  <si>
     <t>KCAL</t>
   </si>
   <si>
@@ -244,6 +241,81 @@
   </si>
   <si>
     <t>Choline, total</t>
+  </si>
+  <si>
+    <t>nutrient_skrajsano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total lipid </t>
+  </si>
+  <si>
+    <t>Fiber</t>
+  </si>
+  <si>
+    <t>Sugars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total fat </t>
+  </si>
+  <si>
+    <t>Calcium</t>
+  </si>
+  <si>
+    <t>Magnesium</t>
+  </si>
+  <si>
+    <t>Phosphorus</t>
+  </si>
+  <si>
+    <t>Potassium</t>
+  </si>
+  <si>
+    <t>Sodium</t>
+  </si>
+  <si>
+    <t>Zinc</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Manganese</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitamin D </t>
+  </si>
+  <si>
+    <t>Vitamin C</t>
+  </si>
+  <si>
+    <t>Folate</t>
+  </si>
+  <si>
+    <t>Choline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitamin K </t>
+  </si>
+  <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>Monounsaturated</t>
+  </si>
+  <si>
+    <t>Polyunsaturated</t>
+  </si>
+  <si>
+    <t>Saturated</t>
+  </si>
+  <si>
+    <t>Trans</t>
+  </si>
+  <si>
+    <t>Iron</t>
   </si>
 </sst>
 </file>
@@ -1112,17 +1184,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1140,1544 +1212,1699 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>56</v>
+      </c>
+      <c r="E2">
+        <v>84</v>
+      </c>
+      <c r="F2">
+        <v>168</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>1800</v>
-      </c>
-      <c r="E2">
-        <v>2200</v>
-      </c>
-      <c r="F2">
-        <v>3000</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E3">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F3">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>78</v>
+      </c>
+      <c r="F4">
+        <v>150</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>46</v>
-      </c>
-      <c r="E4">
-        <v>64</v>
-      </c>
-      <c r="F4">
-        <v>112</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
       <c r="D5">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E5">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="F5">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>25</v>
-      </c>
-      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
         <v>50</v>
       </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>130</v>
+      </c>
+      <c r="E11">
+        <v>225</v>
+      </c>
+      <c r="F11">
+        <v>325</v>
+      </c>
+      <c r="G11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>59</v>
       </c>
       <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>130</v>
-      </c>
-      <c r="E12">
-        <v>225</v>
-      </c>
-      <c r="F12">
-        <v>325</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
+      </c>
+      <c r="E15">
+        <v>1000</v>
+      </c>
+      <c r="F15">
+        <v>2500</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>60</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="D16">
+        <v>350</v>
+      </c>
+      <c r="E16">
+        <v>400</v>
+      </c>
+      <c r="F16">
+        <v>420</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>75</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>1000</v>
-      </c>
-      <c r="E16">
-        <v>1000</v>
-      </c>
-      <c r="F16">
-        <v>2500</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="E17">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="F17">
-        <v>420</v>
+        <v>360</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>280</v>
+        <v>700</v>
       </c>
       <c r="E18">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="F18">
-        <v>360</v>
+        <v>4000</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="E19">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="F19">
-        <v>4000</v>
+        <v>4700</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="E20">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="F20">
-        <v>4700</v>
+        <v>2300</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>1200</v>
+        <v>11</v>
       </c>
       <c r="E21">
-        <v>2300</v>
+        <v>11</v>
       </c>
       <c r="F21">
-        <v>2300</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F22">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>0.9</v>
       </c>
       <c r="E23">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="F23">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>0.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E24">
-        <v>1.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>2.2999999999999998</v>
+        <v>55</v>
       </c>
       <c r="E25">
-        <v>2.2999999999999998</v>
+        <v>70</v>
       </c>
       <c r="F25">
-        <v>11</v>
+        <v>400</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E26">
-        <v>70</v>
-      </c>
-      <c r="F26">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="E27">
-        <v>3000</v>
+        <v>2333</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E28">
-        <v>2333</v>
+        <v>900</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
         <v>70</v>
-      </c>
-      <c r="B29" t="s">
-        <v>71</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="E29">
+        <v>700</v>
+      </c>
+      <c r="G29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
         <v>900</v>
       </c>
-      <c r="G29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
       <c r="E30">
-        <v>700</v>
+        <v>800</v>
+      </c>
+      <c r="F30">
+        <v>3000</v>
       </c>
       <c r="G30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E31">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F31">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="H31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>90</v>
+      </c>
+      <c r="E32">
+        <v>90</v>
+      </c>
+      <c r="F32">
+        <v>2000</v>
+      </c>
+      <c r="G32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>23</v>
       </c>
-      <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32">
-        <v>600</v>
-      </c>
-      <c r="E32">
-        <v>700</v>
-      </c>
-      <c r="F32">
-        <v>4000</v>
-      </c>
-      <c r="G32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>72</v>
-      </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>90</v>
+        <v>0.5</v>
       </c>
       <c r="E33">
-        <v>90</v>
-      </c>
-      <c r="F33">
-        <v>2000</v>
+        <v>1.2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="H33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>0.5</v>
+        <v>6.6</v>
       </c>
       <c r="E34">
-        <v>1.2</v>
-      </c>
-      <c r="F34" t="s">
         <v>14</v>
       </c>
+      <c r="F34">
+        <v>35</v>
+      </c>
       <c r="G34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="H34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35">
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>14</v>
-      </c>
-      <c r="F35">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="H35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="E36">
-        <v>5</v>
-      </c>
-      <c r="F36" t="s">
-        <v>14</v>
+        <v>1.7</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>1.3</v>
+        <v>30</v>
       </c>
       <c r="E37">
-        <v>1.7</v>
-      </c>
-      <c r="F37">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="H37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>400</v>
+      </c>
+      <c r="E38">
+        <v>60</v>
+      </c>
+      <c r="F38">
+        <v>1000</v>
+      </c>
+      <c r="G38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>28</v>
       </c>
-      <c r="B38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38">
-        <v>30</v>
-      </c>
-      <c r="E38">
-        <v>30</v>
-      </c>
-      <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>2.4</v>
+      </c>
+      <c r="E39">
+        <v>2.4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>73</v>
       </c>
-      <c r="B39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39">
-        <v>400</v>
-      </c>
-      <c r="E39">
-        <v>60</v>
-      </c>
-      <c r="F39">
-        <v>1000</v>
-      </c>
-      <c r="G39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>29</v>
-      </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D40">
-        <v>2.4</v>
+        <v>550</v>
       </c>
       <c r="E40">
-        <v>2.4</v>
-      </c>
-      <c r="F40" t="s">
-        <v>14</v>
+        <v>550</v>
+      </c>
+      <c r="F40">
+        <v>3500</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="H40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41">
-        <v>550</v>
+        <v>425</v>
       </c>
       <c r="E41">
-        <v>550</v>
+        <v>425</v>
       </c>
       <c r="F41">
         <v>3500</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42">
-        <v>425</v>
-      </c>
-      <c r="E42">
-        <v>425</v>
-      </c>
-      <c r="F42">
-        <v>3500</v>
+        <v>32</v>
+      </c>
+      <c r="H41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="1">
+        <v>120</v>
+      </c>
+      <c r="E42" s="1">
+        <v>120</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1200</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="1">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E43" s="1">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F43" s="2">
         <v>1200</v>
       </c>
       <c r="G43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="1">
-        <v>90</v>
-      </c>
-      <c r="E44" s="1">
-        <v>90</v>
-      </c>
-      <c r="F44" s="2">
-        <v>1200</v>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="H44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45">
+        <v>400</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
         <v>34</v>
       </c>
-      <c r="B45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>2000</v>
       </c>
       <c r="E46">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="H46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47">
-        <v>2000</v>
+        <v>130</v>
       </c>
       <c r="E47">
-        <v>3000</v>
+        <v>225</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48">
-        <v>130</v>
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
       </c>
       <c r="E48">
-        <v>225</v>
+        <v>2500</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="H48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E49">
-        <v>2500</v>
+        <v>25</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="H49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E50">
+        <v>20</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>54</v>
+      </c>
+      <c r="H50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51">
         <v>25</v>
       </c>
-      <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
+        <v>54</v>
+      </c>
+      <c r="H51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>40</v>
       </c>
-      <c r="B51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51">
-        <v>20</v>
-      </c>
-      <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52">
+        <v>22</v>
+      </c>
+      <c r="F52">
+        <v>22</v>
+      </c>
+      <c r="G52" t="s">
         <v>54</v>
       </c>
-      <c r="B52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52">
-        <v>25</v>
-      </c>
-      <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>41</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E53">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F53">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="H53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>42</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="3">
+        <v>300</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="G54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="H54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="3">
-        <v>300</v>
-      </c>
-      <c r="F55">
-        <v>300</v>
-      </c>
-      <c r="G55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>10</v>
       </c>
       <c r="D56" s="3">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E56" s="3">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>44</v>
       </c>
       <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
         <v>9</v>
       </c>
-      <c r="C57" t="s">
-        <v>11</v>
-      </c>
       <c r="D57" s="3">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="E57" s="3">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
       </c>
       <c r="D58" s="3">
-        <v>2.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E58" s="3">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>45</v>
       </c>
       <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
         <v>9</v>
       </c>
-      <c r="C59" t="s">
-        <v>11</v>
-      </c>
       <c r="D59" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="E59" s="3">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
       </c>
       <c r="D60" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E60" s="3">
         <v>2.8</v>
       </c>
-      <c r="E60" s="3">
-        <v>3.3</v>
-      </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>46</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D61" s="3">
-        <v>2.2999999999999998</v>
+        <v>0.8</v>
       </c>
       <c r="E61" s="3">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>47</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D62" s="3">
         <v>0.8</v>
       </c>
-      <c r="E62" s="3">
-        <v>1</v>
+      <c r="E62" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>48</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E64" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>50</v>
       </c>
       <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
         <v>9</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="E65" s="3">
+        <v>2</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>10</v>
       </c>
       <c r="D66" s="3">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="E66" s="3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="3">
+        <v>8</v>
+      </c>
+      <c r="E67" s="3">
         <v>11</v>
       </c>
-      <c r="D67" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="E67" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F67" t="s">
-        <v>14</v>
+      <c r="F67">
+        <v>45</v>
       </c>
       <c r="G67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>52</v>
-      </c>
-      <c r="B68" t="s">
-        <v>21</v>
-      </c>
-      <c r="C68" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="3">
-        <v>55</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68">
-        <v>400</v>
-      </c>
-      <c r="G68" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>53</v>
-      </c>
-      <c r="B69" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="3">
-        <v>8</v>
-      </c>
-      <c r="E69" s="3">
-        <v>11</v>
-      </c>
-      <c r="F69">
-        <v>45</v>
-      </c>
-      <c r="G69" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="H67" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/rdv.xlsx
+++ b/rdv.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="112">
   <si>
     <t>Unit Name</t>
   </si>
@@ -316,13 +316,52 @@
   </si>
   <si>
     <t>Iron</t>
+  </si>
+  <si>
+    <t>nutrient2</t>
+  </si>
+  <si>
+    <t>nutrient3</t>
+  </si>
+  <si>
+    <t>Adjusted Protein</t>
+  </si>
+  <si>
+    <t>Fiber, soluble</t>
+  </si>
+  <si>
+    <t>Fiber, insoluble</t>
+  </si>
+  <si>
+    <t>Total dietary fiber (AOAC 2011.25)</t>
+  </si>
+  <si>
+    <t>Carbohydrate, by difference</t>
+  </si>
+  <si>
+    <t>Carbohydrate, other</t>
+  </si>
+  <si>
+    <t>Sugars, Total NLEA</t>
+  </si>
+  <si>
+    <t>Sugars, added</t>
+  </si>
+  <si>
+    <t>Calcium, added</t>
+  </si>
+  <si>
+    <t>nutrient4</t>
+  </si>
+  <si>
+    <t>Sugars, total including NLEA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,6 +520,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="34">
@@ -854,7 +899,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -863,6 +908,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % – Poudarek1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1184,1726 +1232,1804 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="36.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>55</v>
       </c>
       <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>56</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>84</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>168</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="G3">
         <v>46</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>64</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>112</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4">
         <v>20</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>78</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>150</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>54</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>38</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>38</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>50</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="G6">
         <v>25</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>25</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>50</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>17</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
         <v>17</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
       <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8">
         <v>50</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
       <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9">
         <v>20</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" t="s">
+      <c r="K9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
         <v>17</v>
       </c>
-      <c r="H10" t="s">
+      <c r="K10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
+        <v>106</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11">
         <v>130</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>225</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>325</v>
       </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" t="s">
+      <c r="K11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12">
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12">
         <v>24</v>
       </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
         <v>17</v>
       </c>
-      <c r="H12" t="s">
+      <c r="K12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13">
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13">
         <v>36</v>
       </c>
-      <c r="G13" t="s">
+      <c r="J13" t="s">
         <v>17</v>
       </c>
-      <c r="H13" t="s">
+      <c r="K13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14">
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14">
         <v>75</v>
       </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s">
         <v>54</v>
       </c>
-      <c r="H14" t="s">
+      <c r="K14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>56</v>
       </c>
       <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15">
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15">
         <v>1000</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>1000</v>
       </c>
-      <c r="F15">
+      <c r="I15">
         <v>2500</v>
       </c>
-      <c r="G15" t="s">
+      <c r="J15" t="s">
         <v>31</v>
       </c>
-      <c r="H15" t="s">
+      <c r="K15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>60</v>
       </c>
       <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
+      <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="D16">
+      <c r="G16">
         <v>350</v>
       </c>
-      <c r="E16">
+      <c r="H16">
         <v>400</v>
       </c>
-      <c r="F16">
+      <c r="I16">
         <v>420</v>
       </c>
-      <c r="G16" t="s">
+      <c r="J16" t="s">
         <v>31</v>
       </c>
-      <c r="H16" t="s">
+      <c r="K16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>60</v>
       </c>
       <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
+      <c r="F17" t="s">
         <v>10</v>
       </c>
-      <c r="D17">
+      <c r="G17">
         <v>280</v>
       </c>
-      <c r="E17">
+      <c r="H17">
         <v>320</v>
       </c>
-      <c r="F17">
+      <c r="I17">
         <v>360</v>
       </c>
-      <c r="G17" t="s">
+      <c r="J17" t="s">
         <v>31</v>
       </c>
-      <c r="H17" t="s">
+      <c r="K17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>61</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18">
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18">
         <v>700</v>
       </c>
-      <c r="E18">
+      <c r="H18">
         <v>1000</v>
       </c>
-      <c r="F18">
+      <c r="I18">
         <v>4000</v>
       </c>
-      <c r="G18" t="s">
+      <c r="J18" t="s">
         <v>31</v>
       </c>
-      <c r="H18" t="s">
+      <c r="K18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>62</v>
       </c>
-      <c r="B19" t="s">
+      <c r="E19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19">
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19">
         <v>2000</v>
       </c>
-      <c r="E19">
+      <c r="H19">
         <v>2800</v>
       </c>
-      <c r="F19">
+      <c r="I19">
         <v>4700</v>
       </c>
-      <c r="G19" t="s">
+      <c r="J19" t="s">
         <v>31</v>
       </c>
-      <c r="H19" t="s">
+      <c r="K19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>63</v>
       </c>
-      <c r="B20" t="s">
+      <c r="E20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20">
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20">
         <v>1200</v>
       </c>
-      <c r="E20">
+      <c r="H20">
         <v>2300</v>
       </c>
-      <c r="F20">
+      <c r="I20">
         <v>2300</v>
       </c>
-      <c r="G20" t="s">
+      <c r="J20" t="s">
         <v>31</v>
       </c>
-      <c r="H20" t="s">
+      <c r="K20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>64</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" t="s">
+      <c r="F21" t="s">
         <v>9</v>
       </c>
-      <c r="D21">
+      <c r="G21">
         <v>11</v>
       </c>
-      <c r="E21">
+      <c r="H21">
         <v>11</v>
       </c>
-      <c r="F21">
+      <c r="I21">
         <v>40</v>
       </c>
-      <c r="G21" t="s">
+      <c r="J21" t="s">
         <v>31</v>
       </c>
-      <c r="H21" t="s">
+      <c r="K21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>64</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E22" t="s">
         <v>18</v>
       </c>
-      <c r="C22" t="s">
+      <c r="F22" t="s">
         <v>10</v>
       </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-      <c r="E22">
-        <v>8</v>
-      </c>
-      <c r="F22">
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
         <v>30</v>
       </c>
-      <c r="G22" t="s">
+      <c r="J22" t="s">
         <v>31</v>
       </c>
-      <c r="H22" t="s">
+      <c r="K22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>65</v>
       </c>
-      <c r="B23" t="s">
+      <c r="E23" t="s">
         <v>18</v>
       </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23">
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23">
         <v>0.9</v>
       </c>
-      <c r="E23">
+      <c r="H23">
         <v>1.5</v>
       </c>
-      <c r="F23">
+      <c r="I23">
         <v>10</v>
       </c>
-      <c r="G23" t="s">
+      <c r="J23" t="s">
         <v>31</v>
       </c>
-      <c r="H23" t="s">
+      <c r="K23" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>66</v>
       </c>
-      <c r="B24" t="s">
+      <c r="E24" t="s">
         <v>18</v>
       </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24">
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E24">
+      <c r="H24">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F24">
+      <c r="I24">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
+      <c r="J24" t="s">
         <v>31</v>
       </c>
-      <c r="H24" t="s">
+      <c r="K24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
+      <c r="E25" t="s">
         <v>20</v>
       </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25">
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25">
         <v>55</v>
       </c>
-      <c r="E25">
+      <c r="H25">
         <v>70</v>
       </c>
-      <c r="F25">
+      <c r="I25">
         <v>400</v>
       </c>
-      <c r="G25" t="s">
+      <c r="J25" t="s">
         <v>31</v>
       </c>
-      <c r="H25" t="s">
+      <c r="K25" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>68</v>
       </c>
-      <c r="B26" t="s">
+      <c r="E26" t="s">
         <v>20</v>
       </c>
-      <c r="C26" t="s">
+      <c r="F26" t="s">
         <v>9</v>
       </c>
-      <c r="E26">
+      <c r="H26">
         <v>3000</v>
       </c>
-      <c r="G26" t="s">
+      <c r="J26" t="s">
         <v>31</v>
       </c>
-      <c r="H26" t="s">
+      <c r="K26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>68</v>
       </c>
-      <c r="B27" t="s">
+      <c r="E27" t="s">
         <v>20</v>
       </c>
-      <c r="C27" t="s">
+      <c r="F27" t="s">
         <v>10</v>
       </c>
-      <c r="E27">
+      <c r="H27">
         <v>2333</v>
       </c>
-      <c r="G27" t="s">
+      <c r="J27" t="s">
         <v>31</v>
       </c>
-      <c r="H27" t="s">
+      <c r="K27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>69</v>
       </c>
-      <c r="B28" t="s">
+      <c r="E28" t="s">
         <v>70</v>
       </c>
-      <c r="C28" t="s">
+      <c r="F28" t="s">
         <v>9</v>
       </c>
-      <c r="E28">
+      <c r="H28">
         <v>900</v>
       </c>
-      <c r="G28" t="s">
+      <c r="J28" t="s">
         <v>31</v>
       </c>
-      <c r="H28" t="s">
+      <c r="K28" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>69</v>
       </c>
-      <c r="B29" t="s">
+      <c r="E29" t="s">
         <v>70</v>
       </c>
-      <c r="C29" t="s">
+      <c r="F29" t="s">
         <v>10</v>
       </c>
-      <c r="E29">
+      <c r="H29">
         <v>700</v>
       </c>
-      <c r="G29" t="s">
+      <c r="J29" t="s">
         <v>31</v>
       </c>
-      <c r="H29" t="s">
+      <c r="K29" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>67</v>
       </c>
-      <c r="B30" t="s">
+      <c r="E30" t="s">
         <v>21</v>
       </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30">
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30">
         <v>900</v>
       </c>
-      <c r="E30">
+      <c r="H30">
         <v>800</v>
       </c>
-      <c r="F30">
+      <c r="I30">
         <v>3000</v>
       </c>
-      <c r="G30" t="s">
+      <c r="J30" t="s">
         <v>32</v>
       </c>
-      <c r="H30" t="s">
+      <c r="K30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>22</v>
       </c>
-      <c r="B31" t="s">
+      <c r="E31" t="s">
         <v>21</v>
       </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31">
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31">
         <v>600</v>
       </c>
-      <c r="E31">
+      <c r="H31">
         <v>700</v>
       </c>
-      <c r="F31">
+      <c r="I31">
         <v>4000</v>
       </c>
-      <c r="G31" t="s">
+      <c r="J31" t="s">
         <v>32</v>
       </c>
-      <c r="H31" t="s">
+      <c r="K31" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>71</v>
       </c>
-      <c r="B32" t="s">
+      <c r="E32" t="s">
         <v>18</v>
       </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32">
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32">
         <v>90</v>
       </c>
-      <c r="E32">
+      <c r="H32">
         <v>90</v>
       </c>
-      <c r="F32">
+      <c r="I32">
         <v>2000</v>
       </c>
-      <c r="G32" t="s">
+      <c r="J32" t="s">
         <v>32</v>
       </c>
-      <c r="H32" t="s">
+      <c r="K32" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
-      <c r="B33" t="s">
+      <c r="E33" t="s">
         <v>18</v>
       </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33">
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33">
         <v>0.5</v>
       </c>
-      <c r="E33">
+      <c r="H33">
         <v>1.2</v>
       </c>
-      <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" t="s">
         <v>32</v>
       </c>
-      <c r="H33" t="s">
+      <c r="K33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>24</v>
       </c>
-      <c r="B34" t="s">
+      <c r="E34" t="s">
         <v>18</v>
       </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34">
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34">
         <v>6.6</v>
       </c>
-      <c r="E34">
+      <c r="H34">
         <v>14</v>
       </c>
-      <c r="F34">
+      <c r="I34">
         <v>35</v>
       </c>
-      <c r="G34" t="s">
+      <c r="J34" t="s">
         <v>32</v>
       </c>
-      <c r="H34" t="s">
+      <c r="K34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>25</v>
       </c>
-      <c r="B35" t="s">
+      <c r="E35" t="s">
         <v>18</v>
       </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35">
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35">
         <v>5</v>
       </c>
-      <c r="E35">
+      <c r="H35">
         <v>5</v>
       </c>
-      <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" t="s">
         <v>32</v>
       </c>
-      <c r="H35" t="s">
+      <c r="K35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>26</v>
       </c>
-      <c r="B36" t="s">
+      <c r="E36" t="s">
         <v>18</v>
       </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36">
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36">
         <v>1.3</v>
       </c>
-      <c r="E36">
+      <c r="H36">
         <v>1.7</v>
       </c>
-      <c r="F36">
+      <c r="I36">
         <v>100</v>
       </c>
-      <c r="G36" t="s">
+      <c r="J36" t="s">
         <v>32</v>
       </c>
-      <c r="H36" t="s">
+      <c r="K36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>27</v>
       </c>
-      <c r="B37" t="s">
+      <c r="E37" t="s">
         <v>20</v>
       </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37">
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37">
         <v>30</v>
       </c>
-      <c r="E37">
+      <c r="H37">
         <v>30</v>
       </c>
-      <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" t="s">
         <v>32</v>
       </c>
-      <c r="H37" t="s">
+      <c r="K37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>72</v>
       </c>
-      <c r="B38" t="s">
+      <c r="E38" t="s">
         <v>20</v>
       </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38">
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38">
         <v>400</v>
       </c>
-      <c r="E38">
+      <c r="H38">
         <v>60</v>
       </c>
-      <c r="F38">
+      <c r="I38">
         <v>1000</v>
       </c>
-      <c r="G38" t="s">
+      <c r="J38" t="s">
         <v>32</v>
       </c>
-      <c r="H38" t="s">
+      <c r="K38" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>28</v>
       </c>
-      <c r="B39" t="s">
+      <c r="E39" t="s">
         <v>20</v>
       </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39">
+      <c r="F39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39">
         <v>2.4</v>
       </c>
-      <c r="E39">
+      <c r="H39">
         <v>2.4</v>
       </c>
-      <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" t="s">
         <v>32</v>
       </c>
-      <c r="H39" t="s">
+      <c r="K39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>73</v>
       </c>
-      <c r="B40" t="s">
+      <c r="E40" t="s">
         <v>18</v>
       </c>
-      <c r="C40" t="s">
+      <c r="F40" t="s">
         <v>9</v>
       </c>
-      <c r="D40">
+      <c r="G40">
         <v>550</v>
       </c>
-      <c r="E40">
+      <c r="H40">
         <v>550</v>
       </c>
-      <c r="F40">
+      <c r="I40">
         <v>3500</v>
       </c>
-      <c r="G40" t="s">
+      <c r="J40" t="s">
         <v>32</v>
       </c>
-      <c r="H40" t="s">
+      <c r="K40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>73</v>
       </c>
-      <c r="B41" t="s">
+      <c r="E41" t="s">
         <v>18</v>
       </c>
-      <c r="C41" t="s">
+      <c r="F41" t="s">
         <v>10</v>
       </c>
-      <c r="D41">
+      <c r="G41">
         <v>425</v>
       </c>
-      <c r="E41">
+      <c r="H41">
         <v>425</v>
       </c>
-      <c r="F41">
+      <c r="I41">
         <v>3500</v>
       </c>
-      <c r="G41" t="s">
+      <c r="J41" t="s">
         <v>32</v>
       </c>
-      <c r="H41" t="s">
+      <c r="K41" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="1">
+      <c r="G42" s="1">
         <v>120</v>
       </c>
-      <c r="E42" s="1">
+      <c r="H42" s="1">
         <v>120</v>
       </c>
-      <c r="F42" s="2">
+      <c r="I42" s="2">
         <v>1200</v>
       </c>
-      <c r="G42" t="s">
+      <c r="J42" t="s">
         <v>32</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="1">
+      <c r="G43" s="1">
         <v>90</v>
       </c>
-      <c r="E43" s="1">
+      <c r="H43" s="1">
         <v>90</v>
       </c>
-      <c r="F43" s="2">
+      <c r="I43" s="2">
         <v>1200</v>
       </c>
-      <c r="G43" t="s">
+      <c r="J43" t="s">
         <v>32</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>33</v>
       </c>
-      <c r="B44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" t="s">
-        <v>13</v>
-      </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" t="s">
         <v>34</v>
       </c>
-      <c r="H44" t="s">
+      <c r="K44" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>35</v>
       </c>
-      <c r="B45" t="s">
+      <c r="E45" t="s">
         <v>18</v>
       </c>
-      <c r="C45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45">
+      <c r="F45" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45">
         <v>400</v>
       </c>
-      <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="I45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" t="s">
         <v>34</v>
       </c>
-      <c r="H45" t="s">
+      <c r="K45" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>36</v>
       </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46">
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46">
         <v>2000</v>
       </c>
-      <c r="E46">
+      <c r="H46">
         <v>3000</v>
       </c>
-      <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="I46" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" t="s">
         <v>34</v>
       </c>
-      <c r="H46" t="s">
+      <c r="K46" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>37</v>
       </c>
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47">
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47">
         <v>130</v>
       </c>
-      <c r="E47">
+      <c r="H47">
         <v>225</v>
       </c>
-      <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" t="s">
         <v>17</v>
       </c>
-      <c r="H47" t="s">
+      <c r="K47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>38</v>
       </c>
-      <c r="B48" t="s">
+      <c r="E48" t="s">
         <v>5</v>
       </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48">
+      <c r="F48" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48">
         <v>2500</v>
       </c>
-      <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="I48" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" t="s">
         <v>34</v>
       </c>
-      <c r="H48" t="s">
+      <c r="K48" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>39</v>
       </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
         <v>9</v>
       </c>
-      <c r="D49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49">
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49">
         <v>25</v>
       </c>
-      <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="I49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" t="s">
         <v>54</v>
       </c>
-      <c r="H49" t="s">
+      <c r="K49" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>39</v>
       </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
         <v>10</v>
       </c>
-      <c r="D50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50">
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50">
         <v>20</v>
       </c>
-      <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="I50" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" t="s">
         <v>54</v>
       </c>
-      <c r="H50" t="s">
+      <c r="K50" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
-      <c r="B51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51">
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51">
         <v>25</v>
       </c>
-      <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" t="s">
         <v>54</v>
       </c>
-      <c r="H51" t="s">
+      <c r="K51" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>40</v>
       </c>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52">
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52">
         <v>22</v>
       </c>
-      <c r="F52">
+      <c r="I52">
         <v>22</v>
       </c>
-      <c r="G52" t="s">
+      <c r="J52" t="s">
         <v>54</v>
       </c>
-      <c r="H52" t="s">
+      <c r="K52" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>41</v>
       </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53">
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53">
         <v>2</v>
       </c>
-      <c r="F53">
+      <c r="I53">
         <v>2</v>
       </c>
-      <c r="G53" t="s">
+      <c r="J53" t="s">
         <v>54</v>
       </c>
-      <c r="H53" t="s">
+      <c r="K53" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>42</v>
       </c>
-      <c r="B54" t="s">
+      <c r="E54" t="s">
         <v>18</v>
       </c>
-      <c r="C54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="3">
+      <c r="F54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="F54">
+      <c r="I54">
         <v>300</v>
       </c>
-      <c r="G54" t="s">
+      <c r="J54" t="s">
         <v>54</v>
       </c>
-      <c r="H54" t="s">
+      <c r="K54" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>43</v>
       </c>
-      <c r="B55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="3">
+      <c r="G55" s="3">
         <v>1.2</v>
       </c>
-      <c r="E55" s="3">
+      <c r="H55" s="3">
         <v>1.6</v>
       </c>
-      <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="I55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" t="s">
         <v>7</v>
       </c>
-      <c r="H55" t="s">
+      <c r="K55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>43</v>
       </c>
-      <c r="B56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="3">
+      <c r="G56" s="3">
         <v>1</v>
       </c>
-      <c r="E56" s="3">
+      <c r="H56" s="3">
         <v>1.3</v>
       </c>
-      <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="I56" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" t="s">
         <v>7</v>
       </c>
-      <c r="H56" t="s">
+      <c r="K56" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>44</v>
       </c>
-      <c r="B57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="3">
+      <c r="G57" s="3">
         <v>2.9</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>3.3</v>
       </c>
-      <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="I57" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" t="s">
         <v>7</v>
       </c>
-      <c r="H57" t="s">
+      <c r="K57" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>44</v>
       </c>
-      <c r="B58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="3">
+      <c r="G58" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>2.5</v>
       </c>
-      <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="I58" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" t="s">
         <v>7</v>
       </c>
-      <c r="H58" t="s">
+      <c r="K58" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>45</v>
       </c>
-      <c r="B59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="3">
+      <c r="G59" s="3">
         <v>2.8</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>3.3</v>
       </c>
-      <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="I59" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" t="s">
         <v>7</v>
       </c>
-      <c r="H59" t="s">
+      <c r="K59" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>45</v>
       </c>
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="3">
+      <c r="G60" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>2.8</v>
       </c>
-      <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="I60" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" t="s">
         <v>7</v>
       </c>
-      <c r="H60" t="s">
+      <c r="K60" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>46</v>
       </c>
-      <c r="B61" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="3">
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="3">
         <v>0.8</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
         <v>1</v>
       </c>
-      <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="I61" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" t="s">
         <v>7</v>
       </c>
-      <c r="H61" t="s">
+      <c r="K61" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>47</v>
       </c>
-      <c r="B62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="3">
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="3">
         <v>0.8</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="H62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" t="s">
         <v>7</v>
       </c>
-      <c r="H62" t="s">
+      <c r="K62" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>48</v>
       </c>
-      <c r="B63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="3">
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E63" s="3">
+      <c r="H63" s="3">
         <v>1.5</v>
       </c>
-      <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="I63" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" t="s">
         <v>7</v>
       </c>
-      <c r="H63" t="s">
+      <c r="K63" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>49</v>
       </c>
-      <c r="B64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="3">
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="3">
         <v>0.9</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="H64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" t="s">
         <v>7</v>
       </c>
-      <c r="H64" t="s">
+      <c r="K64" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>50</v>
       </c>
-      <c r="B65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="3">
+      <c r="G65" s="3">
         <v>1.6</v>
       </c>
-      <c r="E65" s="3">
+      <c r="H65" s="3">
         <v>2</v>
       </c>
-      <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="I65" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" t="s">
         <v>7</v>
       </c>
-      <c r="H65" t="s">
+      <c r="K65" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>50</v>
       </c>
-      <c r="B66" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="3">
+      <c r="G66" s="3">
         <v>1.3</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>1.5</v>
       </c>
-      <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="I66" t="s">
+        <v>13</v>
+      </c>
+      <c r="J66" t="s">
         <v>7</v>
       </c>
-      <c r="H66" t="s">
+      <c r="K66" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>52</v>
       </c>
-      <c r="B67" t="s">
+      <c r="E67" t="s">
         <v>18</v>
       </c>
-      <c r="C67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="3">
-        <v>8</v>
-      </c>
-      <c r="E67" s="3">
+      <c r="F67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="3">
+        <v>8</v>
+      </c>
+      <c r="H67" s="3">
         <v>11</v>
       </c>
-      <c r="F67">
+      <c r="I67">
         <v>45</v>
       </c>
-      <c r="G67" t="s">
+      <c r="J67" t="s">
         <v>31</v>
       </c>
-      <c r="H67" t="s">
+      <c r="K67" t="s">
         <v>98</v>
       </c>
     </row>

--- a/rdv.xlsx
+++ b/rdv.xlsx
@@ -1234,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1973,7 +1973,7 @@
         <v>3000</v>
       </c>
       <c r="J26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K26" t="s">
         <v>68</v>
@@ -1993,7 +1993,7 @@
         <v>2333</v>
       </c>
       <c r="J27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K27" t="s">
         <v>68</v>
@@ -2013,7 +2013,7 @@
         <v>900</v>
       </c>
       <c r="J28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K28" t="s">
         <v>69</v>
@@ -2033,7 +2033,7 @@
         <v>700</v>
       </c>
       <c r="J29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K29" t="s">
         <v>69</v>
